--- a/output/APEX_15182407000154.xlsx
+++ b/output/APEX_15182407000154.xlsx
@@ -1527,10 +1527,10 @@
         <v>44165</v>
       </c>
       <c r="B104">
-        <v>1.767579388882596</v>
+        <v>1.784744316899649</v>
       </c>
       <c r="C104">
-        <v>0.0007610704242979605</v>
+        <v>0.006967935457729446</v>
       </c>
     </row>
   </sheetData>

--- a/output/APEX_15182407000154.xlsx
+++ b/output/APEX_15182407000154.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>APEX EQUITY HEDGE STR FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1151 +383,842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41060</v>
       </c>
       <c r="B2">
-        <v>0.005361018543233342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41090</v>
       </c>
       <c r="B3">
-        <v>0.01593885537861905</v>
-      </c>
-      <c r="C3">
         <v>0.01052143124736715</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41121</v>
       </c>
       <c r="B4">
-        <v>0.02857748620993084</v>
-      </c>
-      <c r="C4">
         <v>0.01244034595625498</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41152</v>
       </c>
       <c r="B5">
-        <v>0.02703410385832639</v>
-      </c>
-      <c r="C5">
         <v>-0.00150050178260408</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41182</v>
       </c>
       <c r="B6">
-        <v>0.03872366090281942</v>
-      </c>
-      <c r="C6">
         <v>0.01138185869444652</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41213</v>
       </c>
       <c r="B7">
-        <v>0.05737657347717606</v>
-      </c>
-      <c r="C7">
         <v>0.01795753122456478</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41243</v>
       </c>
       <c r="B8">
-        <v>0.07740920432919673</v>
-      </c>
-      <c r="C8">
         <v>0.01894559739123358</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41274</v>
       </c>
       <c r="B9">
-        <v>0.07779446946045177</v>
-      </c>
-      <c r="C9">
         <v>0.0003575847781018826</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41305</v>
       </c>
       <c r="B10">
-        <v>0.09052300932121482</v>
-      </c>
-      <c r="C10">
         <v>0.01180980253789476</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41333</v>
       </c>
       <c r="B11">
-        <v>0.098157985301079</v>
-      </c>
-      <c r="C11">
         <v>0.00700120576512786</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41364</v>
       </c>
       <c r="B12">
-        <v>0.1116352500146818</v>
-      </c>
-      <c r="C12">
         <v>0.01227261003789692</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41394</v>
       </c>
       <c r="B13">
-        <v>0.1263921968605426</v>
-      </c>
-      <c r="C13">
         <v>0.01327499001643373</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41425</v>
       </c>
       <c r="B14">
-        <v>0.1486238444911294</v>
-      </c>
-      <c r="C14">
         <v>0.01973703980953556</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41455</v>
       </c>
       <c r="B15">
-        <v>0.1520436184072673</v>
-      </c>
-      <c r="C15">
         <v>0.002977279230741425</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41486</v>
       </c>
       <c r="B16">
-        <v>0.1632565390343115</v>
-      </c>
-      <c r="C16">
         <v>0.009733069519143989</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41517</v>
       </c>
       <c r="B17">
-        <v>0.1573374423011273</v>
-      </c>
-      <c r="C17">
         <v>-0.005088384663711309</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41547</v>
       </c>
       <c r="B18">
-        <v>0.1582540500362126</v>
-      </c>
-      <c r="C18">
         <v>0.0007919969592125042</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41578</v>
       </c>
       <c r="B19">
-        <v>0.1709032822289094</v>
-      </c>
-      <c r="C19">
         <v>0.01092094794946008</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41608</v>
       </c>
       <c r="B20">
-        <v>0.1892060139537233</v>
-      </c>
-      <c r="C20">
         <v>0.01563129252654671</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41639</v>
       </c>
       <c r="B21">
-        <v>0.195322742589777</v>
-      </c>
-      <c r="C21">
         <v>0.005143539945377196</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41670</v>
       </c>
       <c r="B22">
-        <v>0.1839178316044585</v>
-      </c>
-      <c r="C22">
         <v>-0.009541281679798619</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41698</v>
       </c>
       <c r="B23">
-        <v>0.1923418729390578</v>
-      </c>
-      <c r="C23">
         <v>0.007115393576919926</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41729</v>
       </c>
       <c r="B24">
-        <v>0.1989448908630846</v>
-      </c>
-      <c r="C24">
         <v>0.005537856275860564</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41759</v>
       </c>
       <c r="B25">
-        <v>0.2111066679144591</v>
-      </c>
-      <c r="C25">
         <v>0.01014373316409856</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41790</v>
       </c>
       <c r="B26">
-        <v>0.2208992432386629</v>
-      </c>
-      <c r="C26">
         <v>0.008085642316763675</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41820</v>
       </c>
       <c r="B27">
-        <v>0.2338358187614178</v>
-      </c>
-      <c r="C27">
         <v>0.01059594032382072</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41851</v>
       </c>
       <c r="B28">
-        <v>0.2429097146568</v>
-      </c>
-      <c r="C28">
         <v>0.007354216628668642</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41882</v>
       </c>
       <c r="B29">
-        <v>0.2695069100325593</v>
-      </c>
-      <c r="C29">
         <v>0.02139913709106667</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41912</v>
       </c>
       <c r="B30">
-        <v>0.2738171390243362</v>
-      </c>
-      <c r="C30">
         <v>0.003395199315351816</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41943</v>
       </c>
       <c r="B31">
-        <v>0.2907980894548603</v>
-      </c>
-      <c r="C31">
         <v>0.01333075989504295</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41973</v>
       </c>
       <c r="B32">
-        <v>0.3224191939139767</v>
-      </c>
-      <c r="C32">
         <v>0.02449732821689476</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42004</v>
       </c>
       <c r="B33">
-        <v>0.3373443200454769</v>
-      </c>
-      <c r="C33">
         <v>0.01128622920794586</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42035</v>
       </c>
       <c r="B34">
-        <v>0.3289997839812067</v>
-      </c>
-      <c r="C34">
         <v>-0.006239631738209739</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42063</v>
       </c>
       <c r="B35">
-        <v>0.3326780117766206</v>
-      </c>
-      <c r="C35">
         <v>0.002767666210144348</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42094</v>
       </c>
       <c r="B36">
-        <v>0.3473989950107008</v>
-      </c>
-      <c r="C36">
         <v>0.01104616651883927</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42124</v>
       </c>
       <c r="B37">
-        <v>0.3463045353592256</v>
-      </c>
-      <c r="C37">
         <v>-0.0008122758407330677</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42155</v>
       </c>
       <c r="B38">
-        <v>0.3611499684982473</v>
-      </c>
-      <c r="C38">
         <v>0.01102680169985515</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42185</v>
       </c>
       <c r="B39">
-        <v>0.3828806548728678</v>
-      </c>
-      <c r="C39">
         <v>0.01596494646258262</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42216</v>
       </c>
       <c r="B40">
-        <v>0.4185771676750838</v>
-      </c>
-      <c r="C40">
         <v>0.0258131550806151</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42247</v>
       </c>
       <c r="B41">
-        <v>0.4411224002161929</v>
-      </c>
-      <c r="C41">
         <v>0.01589284887339515</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42277</v>
       </c>
       <c r="B42">
-        <v>0.4701243262059251</v>
-      </c>
-      <c r="C42">
         <v>0.02012454041751166</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42308</v>
       </c>
       <c r="B43">
-        <v>0.4514073015774904</v>
-      </c>
-      <c r="C43">
         <v>-0.01273159303250182</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42338</v>
       </c>
       <c r="B44">
-        <v>0.4543258672348338</v>
-      </c>
-      <c r="C44">
         <v>0.002010852263297336</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42369</v>
       </c>
       <c r="B45">
-        <v>0.4766320405587336</v>
-      </c>
-      <c r="C45">
         <v>0.01533780965218723</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42400</v>
       </c>
       <c r="B46">
-        <v>0.5043888252916986</v>
-      </c>
-      <c r="C46">
         <v>0.01879736045986258</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42429</v>
       </c>
       <c r="B47">
-        <v>0.5103326618281514</v>
-      </c>
-      <c r="C47">
         <v>0.00395099753237016</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42460</v>
       </c>
       <c r="B48">
-        <v>0.490201259485205</v>
-      </c>
-      <c r="C48">
         <v>-0.01332911804911829</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42490</v>
       </c>
       <c r="B49">
-        <v>0.5217462870732472</v>
-      </c>
-      <c r="C49">
         <v>0.02116830017909099</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42521</v>
       </c>
       <c r="B50">
-        <v>0.5421351948046096</v>
-      </c>
-      <c r="C50">
         <v>0.01339836206899903</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42551</v>
       </c>
       <c r="B51">
-        <v>0.5756334021964045</v>
-      </c>
-      <c r="C51">
         <v>0.02172196543120797</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42582</v>
       </c>
       <c r="B52">
-        <v>0.6031356850953435</v>
-      </c>
-      <c r="C52">
         <v>0.01745474731660379</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42613</v>
       </c>
       <c r="B53">
-        <v>0.5896641014467885</v>
-      </c>
-      <c r="C53">
         <v>-0.008403271023034953</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42643</v>
       </c>
       <c r="B54">
-        <v>0.6048924284899146</v>
-      </c>
-      <c r="C54">
         <v>0.009579587932611933</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42674</v>
       </c>
       <c r="B55">
-        <v>0.6610851272918206</v>
-      </c>
-      <c r="C55">
         <v>0.0350133739834384</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42704</v>
       </c>
       <c r="B56">
-        <v>0.6539621288940587</v>
-      </c>
-      <c r="C56">
         <v>-0.004288159758178645</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42735</v>
       </c>
       <c r="B57">
-        <v>0.6944729837001056</v>
-      </c>
-      <c r="C57">
         <v>0.02449321789074754</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42766</v>
       </c>
       <c r="B58">
-        <v>0.7408008143900606</v>
-      </c>
-      <c r="C58">
         <v>0.02734055434085003</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42794</v>
       </c>
       <c r="B59">
-        <v>0.7975186807250927</v>
-      </c>
-      <c r="C59">
         <v>0.03258147966509584</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42825</v>
       </c>
       <c r="B60">
-        <v>0.794413865055202</v>
-      </c>
-      <c r="C60">
         <v>-0.001727278666521781</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42855</v>
       </c>
       <c r="B61">
-        <v>0.8143480702202561</v>
-      </c>
-      <c r="C61">
         <v>0.01110903429429366</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42886</v>
       </c>
       <c r="B62">
-        <v>0.7786065436226359</v>
-      </c>
-      <c r="C62">
         <v>-0.01969937697416646</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42916</v>
       </c>
       <c r="B63">
-        <v>0.7984071103775412</v>
-      </c>
-      <c r="C63">
         <v>0.01113262898188583</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42947</v>
       </c>
       <c r="B64">
-        <v>0.8298879468706006</v>
-      </c>
-      <c r="C64">
         <v>0.01750484432106725</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42978</v>
       </c>
       <c r="B65">
-        <v>0.8792355452166538</v>
-      </c>
-      <c r="C65">
         <v>0.02696755199160994</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43008</v>
       </c>
       <c r="B66">
-        <v>0.9257479166595859</v>
-      </c>
-      <c r="C66">
         <v>0.02475068735333541</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43039</v>
       </c>
       <c r="B67">
-        <v>0.9504996847453504</v>
-      </c>
-      <c r="C67">
         <v>0.01285306756488613</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43069</v>
       </c>
       <c r="B68">
-        <v>0.9486560259956052</v>
-      </c>
-      <c r="C68">
         <v>-0.0009452238132434676</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43100</v>
       </c>
       <c r="B69">
-        <v>0.98467613226294</v>
-      </c>
-      <c r="C69">
         <v>0.01848458926912544</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43131</v>
       </c>
       <c r="B70">
-        <v>1.016644275695625</v>
-      </c>
-      <c r="C70">
         <v>0.01610748621047553</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43159</v>
       </c>
       <c r="B71">
-        <v>1.069413159615125</v>
-      </c>
-      <c r="C71">
         <v>0.02616667924802796</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43190</v>
       </c>
       <c r="B72">
-        <v>1.129881230369697</v>
-      </c>
-      <c r="C72">
         <v>0.02921991216380326</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43220</v>
       </c>
       <c r="B73">
-        <v>1.219437520022049</v>
-      </c>
-      <c r="C73">
         <v>0.04204755099738922</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43251</v>
       </c>
       <c r="B74">
-        <v>1.18824267328355</v>
-      </c>
-      <c r="C74">
         <v>-0.01405529394591365</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43281</v>
       </c>
       <c r="B75">
-        <v>1.242334780993855</v>
-      </c>
-      <c r="C75">
         <v>0.02471942822920026</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43312</v>
       </c>
       <c r="B76">
-        <v>1.243313880444466</v>
-      </c>
-      <c r="C76">
         <v>0.0004366428505275799</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43343</v>
       </c>
       <c r="B77">
-        <v>1.241982130116031</v>
-      </c>
-      <c r="C77">
         <v>-0.0005936531396892875</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43373</v>
       </c>
       <c r="B78">
-        <v>1.245785756307247</v>
-      </c>
-      <c r="C78">
         <v>0.001696546167840651</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43404</v>
       </c>
       <c r="B79">
-        <v>1.295417526467045</v>
-      </c>
-      <c r="C79">
         <v>0.02209995767423845</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43434</v>
       </c>
       <c r="B80">
-        <v>1.341015542840684</v>
-      </c>
-      <c r="C80">
         <v>0.01986480274193125</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43465</v>
       </c>
       <c r="B81">
-        <v>1.386298205763552</v>
-      </c>
-      <c r="C81">
         <v>0.01934317055747514</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43496</v>
       </c>
       <c r="B82">
-        <v>1.455491957706476</v>
-      </c>
-      <c r="C82">
         <v>0.02899627204001698</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43524</v>
       </c>
       <c r="B83">
-        <v>1.458809146408021</v>
-      </c>
-      <c r="C83">
         <v>0.001350926314840573</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43555</v>
       </c>
       <c r="B84">
-        <v>1.443073208792795</v>
-      </c>
-      <c r="C84">
         <v>-0.00639982067669409</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43585</v>
       </c>
       <c r="B85">
-        <v>1.452869340957724</v>
-      </c>
-      <c r="C85">
         <v>0.004009757926890067</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43616</v>
       </c>
       <c r="B86">
-        <v>1.457270289148229</v>
-      </c>
-      <c r="C86">
         <v>0.001794204084587081</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43646</v>
       </c>
       <c r="B87">
-        <v>1.506883168531729</v>
-      </c>
-      <c r="C87">
         <v>0.02019024101768507</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43677</v>
       </c>
       <c r="B88">
-        <v>1.5891517583005</v>
-      </c>
-      <c r="C88">
         <v>0.03281708170586817</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43708</v>
       </c>
       <c r="B89">
-        <v>1.65684308096073</v>
-      </c>
-      <c r="C89">
         <v>0.02614420821151908</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43738</v>
       </c>
       <c r="B90">
-        <v>1.631262825868855</v>
-      </c>
-      <c r="C90">
         <v>-0.009628063951230614</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43769</v>
       </c>
       <c r="B91">
-        <v>1.687039660829153</v>
-      </c>
-      <c r="C91">
         <v>0.02119774368867167</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43799</v>
       </c>
       <c r="B92">
-        <v>1.741637403088934</v>
-      </c>
-      <c r="C92">
         <v>0.02031891938764074</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43830</v>
       </c>
       <c r="B93">
-        <v>1.88094366857453</v>
-      </c>
-      <c r="C93">
         <v>0.05081133826400341</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43861</v>
       </c>
       <c r="B94">
-        <v>2.00482805560085</v>
-      </c>
-      <c r="C94">
         <v>0.04300132223259245</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43890</v>
       </c>
       <c r="B95">
-        <v>1.902817171984394</v>
-      </c>
-      <c r="C95">
         <v>-0.03394899199849832</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43921</v>
       </c>
       <c r="B96">
-        <v>1.532667329398308</v>
-      </c>
-      <c r="C96">
         <v>-0.1275140047256396</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43951</v>
       </c>
       <c r="B97">
-        <v>1.63995953856552</v>
-      </c>
-      <c r="C97">
         <v>0.04236332499014051</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43982</v>
       </c>
       <c r="B98">
-        <v>1.707949576566016</v>
-      </c>
-      <c r="C98">
         <v>0.02575419698948855</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>44012</v>
       </c>
       <c r="B99">
-        <v>1.793264956100286</v>
-      </c>
-      <c r="C99">
         <v>0.03150552738225643</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>44043</v>
       </c>
       <c r="B100">
-        <v>1.821442574371761</v>
-      </c>
-      <c r="C100">
         <v>0.01008769977582591</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>44074</v>
       </c>
       <c r="B101">
-        <v>1.860260254431092</v>
-      </c>
-      <c r="C101">
         <v>0.01375809680194351</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>44104</v>
       </c>
       <c r="B102">
-        <v>1.823817358362848</v>
-      </c>
-      <c r="C102">
         <v>-0.01274111193615601</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>44135</v>
       </c>
       <c r="B103">
-        <v>1.76547466790371</v>
-      </c>
-      <c r="C103">
         <v>-0.02066092918026508</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>44165</v>
       </c>
       <c r="B104">
-        <v>1.784744316899649</v>
-      </c>
-      <c r="C104">
-        <v>0.006967935457729446</v>
+        <v>0.00322379022417385</v>
       </c>
     </row>
   </sheetData>
